--- a/canteen/controllers/thisMonthReport.xlsx
+++ b/canteen/controllers/thisMonthReport.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Order ID</t>
   </si>
@@ -28,115 +28,79 @@
     <t>Payment Mode</t>
   </si>
   <si>
-    <t>63d0e6b53b78a6715ae7e6d2</t>
+    <t>63e07e1c09901c4fc0bb2707</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>1140</t>
-  </si>
-  <si>
-    <t>9</t>
+    <t>300</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>CASH</t>
+  </si>
+  <si>
+    <t>63e07eaf09901c4fc0bb277e</t>
+  </si>
+  <si>
+    <t>420</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>63e22d478db3f87bb229bc52</t>
+  </si>
+  <si>
+    <t>Ayushi</t>
+  </si>
+  <si>
+    <t>10</t>
   </si>
   <si>
     <t>KOT</t>
   </si>
   <si>
-    <t>63d0e7083b78a6715ae7efaf</t>
-  </si>
-  <si>
-    <t>252</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>63d0e0536b9e4c27c6ad848c</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>63d0e73f3b78a6715ae7f562</t>
-  </si>
-  <si>
-    <t>1220</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>63d0e7f5f633e17647c0d924</t>
-  </si>
-  <si>
-    <t>1631</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>63d0ea2126ca7380c5de671c</t>
-  </si>
-  <si>
-    <t>266</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>63d0eafe15e31d8e698865ae</t>
-  </si>
-  <si>
-    <t>240</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>63d0eb1f15e31d8e69886860</t>
-  </si>
-  <si>
-    <t>1040</t>
-  </si>
-  <si>
-    <t>63d0ec7fee73c796b3e7ca8b</t>
+    <t>63e07e8109901c4fc0bb2751</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t>63e203232c5b115874130468</t>
+  </si>
+  <si>
+    <t>610</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>63e07f3509901c4fc0bb27fa</t>
   </si>
   <si>
     <t>280</t>
   </si>
   <si>
-    <t>63d0ef3f300e7ea6ac9b23ee</t>
-  </si>
-  <si>
-    <t>126</t>
-  </si>
-  <si>
-    <t>63d0ef9a300e7ea6ac9b2e42</t>
-  </si>
-  <si>
-    <t>780</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>63d6b7832c314e572c099d1d</t>
-  </si>
-  <si>
-    <t>Kandarp</t>
-  </si>
-  <si>
-    <t>120</t>
+    <t>63e0b01b09901c4fc0bb2877</t>
+  </si>
+  <si>
+    <t>63e1d7198db3f87bb229bb25</t>
+  </si>
+  <si>
+    <t>Het B. Patel</t>
+  </si>
+  <si>
+    <t>63e22be88db3f87bb229bb74</t>
+  </si>
+  <si>
+    <t>230</t>
   </si>
   <si>
     <t>1</t>
-  </si>
-  <si>
-    <t>CASH</t>
   </si>
 </sst>
 </file>
@@ -182,7 +146,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -244,30 +208,30 @@
         <v>13</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>15</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>9</v>
@@ -301,7 +265,7 @@
         <v>23</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>9</v>
@@ -309,16 +273,16 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="E8" s="0" t="s">
         <v>9</v>
@@ -326,87 +290,36 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="0" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D9" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="0" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/canteen/controllers/thisMonthReport.xlsx
+++ b/canteen/controllers/thisMonthReport.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>Order ID</t>
   </si>
@@ -28,28 +28,82 @@
     <t>Payment Mode</t>
   </si>
   <si>
+    <t>63dfe8107771d34b50ec1f77</t>
+  </si>
+  <si>
+    <t>het</t>
+  </si>
+  <si>
+    <t>360</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>KOT</t>
+  </si>
+  <si>
+    <t>63e07eaf09901c4fc0bb277e</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>420</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>CASH</t>
+  </si>
+  <si>
+    <t>63e07e8109901c4fc0bb2751</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
     <t>63e07e1c09901c4fc0bb2707</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>300</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>CASH</t>
-  </si>
-  <si>
-    <t>63e07eaf09901c4fc0bb277e</t>
-  </si>
-  <si>
-    <t>420</t>
-  </si>
-  <si>
-    <t>3</t>
+    <t>63e07f3509901c4fc0bb27fa</t>
+  </si>
+  <si>
+    <t>280</t>
+  </si>
+  <si>
+    <t>63e0b01b09901c4fc0bb2877</t>
+  </si>
+  <si>
+    <t>63e1d7198db3f87bb229bb25</t>
+  </si>
+  <si>
+    <t>Het B. Patel</t>
+  </si>
+  <si>
+    <t>63e1ffe22c5b1158741302ca</t>
+  </si>
+  <si>
+    <t>63e22be88db3f87bb229bb74</t>
+  </si>
+  <si>
+    <t>230</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>63e203232c5b115874130468</t>
+  </si>
+  <si>
+    <t>610</t>
+  </si>
+  <si>
+    <t>6</t>
   </si>
   <si>
     <t>63e22d478db3f87bb229bc52</t>
@@ -61,46 +115,76 @@
     <t>10</t>
   </si>
   <si>
-    <t>KOT</t>
-  </si>
-  <si>
-    <t>63e07e8109901c4fc0bb2751</t>
-  </si>
-  <si>
-    <t>400</t>
-  </si>
-  <si>
-    <t>63e203232c5b115874130468</t>
-  </si>
-  <si>
-    <t>610</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>63e07f3509901c4fc0bb27fa</t>
-  </si>
-  <si>
-    <t>280</t>
-  </si>
-  <si>
-    <t>63e0b01b09901c4fc0bb2877</t>
-  </si>
-  <si>
-    <t>63e1d7198db3f87bb229bb25</t>
-  </si>
-  <si>
-    <t>Het B. Patel</t>
-  </si>
-  <si>
-    <t>63e22be88db3f87bb229bb74</t>
-  </si>
-  <si>
-    <t>230</t>
-  </si>
-  <si>
-    <t>1</t>
+    <t>63e22f0f8db3f87bb229bf35</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>63e22f5e8db3f87bb229bf95</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>63e40de811e4eb3328e954f0</t>
+  </si>
+  <si>
+    <t>1630</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>63e4882611e4eb3328e964db</t>
+  </si>
+  <si>
+    <t>kandarp shah</t>
+  </si>
+  <si>
+    <t>63e486d511e4eb3328e96458</t>
+  </si>
+  <si>
+    <t>1080</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>63e22f708db3f87bb229c035</t>
+  </si>
+  <si>
+    <t>800</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>63e551ac4bde7a495d8ec7d5</t>
+  </si>
+  <si>
+    <t>63e552041159a16eb41ee78a</t>
+  </si>
+  <si>
+    <t>63e48b7311e4eb3328e965ad</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>63e55ce34bde7a495d8ec81a</t>
+  </si>
+  <si>
+    <t>63e565164bde7a495d8ee7ea</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>63e55cae4bde7a495d8ec7fe</t>
+  </si>
+  <si>
+    <t>340</t>
   </si>
 </sst>
 </file>
@@ -146,7 +230,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -191,33 +275,33 @@
         <v>10</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -225,7 +309,7 @@
         <v>17</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>18</v>
@@ -234,7 +318,7 @@
         <v>8</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -242,44 +326,44 @@
         <v>19</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>8</v>
@@ -290,36 +374,274 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B10" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="D10" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="B11" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="0" t="s">
-        <v>16</v>
+      <c r="D11" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/canteen/controllers/thisMonthReport.xlsx
+++ b/canteen/controllers/thisMonthReport.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>Order ID</t>
   </si>
@@ -28,21 +28,39 @@
     <t>Payment Mode</t>
   </si>
   <si>
+    <t>63e07e8109901c4fc0bb2751</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>CASH</t>
+  </si>
+  <si>
+    <t>63dfe8107771d34b50ec1f77</t>
+  </si>
+  <si>
+    <t>het</t>
+  </si>
+  <si>
+    <t>360</t>
+  </si>
+  <si>
+    <t>KOT</t>
+  </si>
+  <si>
     <t>63e07e1c09901c4fc0bb2707</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>300</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>CASH</t>
-  </si>
-  <si>
     <t>63e07eaf09901c4fc0bb277e</t>
   </si>
   <si>
@@ -52,6 +70,42 @@
     <t>3</t>
   </si>
   <si>
+    <t>63e07f3509901c4fc0bb27fa</t>
+  </si>
+  <si>
+    <t>280</t>
+  </si>
+  <si>
+    <t>63e0b01b09901c4fc0bb2877</t>
+  </si>
+  <si>
+    <t>63e1d7198db3f87bb229bb25</t>
+  </si>
+  <si>
+    <t>Het B. Patel</t>
+  </si>
+  <si>
+    <t>63e1ffe22c5b1158741302ca</t>
+  </si>
+  <si>
+    <t>63e203232c5b115874130468</t>
+  </si>
+  <si>
+    <t>610</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>63e22be88db3f87bb229bb74</t>
+  </si>
+  <si>
+    <t>230</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>63e22d478db3f87bb229bc52</t>
   </si>
   <si>
@@ -61,46 +115,34 @@
     <t>10</t>
   </si>
   <si>
-    <t>KOT</t>
-  </si>
-  <si>
-    <t>63e07e8109901c4fc0bb2751</t>
-  </si>
-  <si>
-    <t>400</t>
-  </si>
-  <si>
-    <t>63e203232c5b115874130468</t>
-  </si>
-  <si>
-    <t>610</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>63e07f3509901c4fc0bb27fa</t>
-  </si>
-  <si>
-    <t>280</t>
-  </si>
-  <si>
-    <t>63e0b01b09901c4fc0bb2877</t>
-  </si>
-  <si>
-    <t>63e1d7198db3f87bb229bb25</t>
-  </si>
-  <si>
-    <t>Het B. Patel</t>
-  </si>
-  <si>
-    <t>63e22be88db3f87bb229bb74</t>
-  </si>
-  <si>
-    <t>230</t>
-  </si>
-  <si>
-    <t>1</t>
+    <t>63e22f0f8db3f87bb229bf35</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>63e22f5e8db3f87bb229bf95</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>63e22f708db3f87bb229c035</t>
+  </si>
+  <si>
+    <t>800</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>63e40de811e4eb3328e954f0</t>
+  </si>
+  <si>
+    <t>1630</t>
+  </si>
+  <si>
+    <t>8</t>
   </si>
 </sst>
 </file>
@@ -146,7 +188,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -191,47 +233,47 @@
         <v>10</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>15</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="0" t="s">
+      <c r="D5" s="0" t="s">
         <v>18</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>8</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>9</v>
@@ -248,7 +290,7 @@
         <v>20</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E6" s="0" t="s">
         <v>9</v>
@@ -256,13 +298,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>8</v>
@@ -273,10 +315,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>7</v>
@@ -285,41 +327,143 @@
         <v>8</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="C9" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="0" t="s">
-        <v>8</v>
-      </c>
       <c r="E9" s="0" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="0" t="s">
+      <c r="E10" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="B11" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="0" t="s">
-        <v>16</v>
+      <c r="D11" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/canteen/controllers/thisMonthReport.xlsx
+++ b/canteen/controllers/thisMonthReport.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
   <si>
     <t>Order ID</t>
   </si>
@@ -28,6 +28,21 @@
     <t>Payment Mode</t>
   </si>
   <si>
+    <t>63e07eaf09901c4fc0bb277e</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>420</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>CASH</t>
+  </si>
+  <si>
     <t>63dfe8107771d34b50ec1f77</t>
   </si>
   <si>
@@ -43,46 +58,40 @@
     <t>KOT</t>
   </si>
   <si>
-    <t>63e07e1c09901c4fc0bb2707</t>
-  </si>
-  <si>
-    <t/>
+    <t>63e0b01b09901c4fc0bb2877</t>
   </si>
   <si>
     <t>300</t>
   </si>
   <si>
-    <t>CASH</t>
-  </si>
-  <si>
     <t>63e07e8109901c4fc0bb2751</t>
   </si>
   <si>
     <t>400</t>
   </si>
   <si>
-    <t>63e07eaf09901c4fc0bb277e</t>
-  </si>
-  <si>
-    <t>420</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>63e07f3509901c4fc0bb27fa</t>
   </si>
   <si>
     <t>280</t>
   </si>
   <si>
-    <t>63e0b01b09901c4fc0bb2877</t>
+    <t>63e1d5998db3f87bb229b9f2</t>
+  </si>
+  <si>
+    <t>Het B. Patel</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
   <si>
     <t>63e1d7198db3f87bb229bb25</t>
   </si>
   <si>
-    <t>Het B. Patel</t>
+    <t>63e22be88db3f87bb229bb74</t>
+  </si>
+  <si>
+    <t>230</t>
   </si>
   <si>
     <t>63e1ffe22c5b1158741302ca</t>
@@ -97,28 +106,37 @@
     <t>6</t>
   </si>
   <si>
+    <t>63e22f0f8db3f87bb229bf35</t>
+  </si>
+  <si>
+    <t>Ayushi</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
     <t>63e22d478db3f87bb229bc52</t>
   </si>
   <si>
-    <t>Ayushi</t>
-  </si>
-  <si>
     <t>10</t>
   </si>
   <si>
-    <t>63e22be88db3f87bb229bb74</t>
-  </si>
-  <si>
-    <t>230</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>63e22f0f8db3f87bb229bf35</t>
-  </si>
-  <si>
-    <t>21</t>
+    <t>63e22f938db3f87bb229c08a</t>
+  </si>
+  <si>
+    <t>2600</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>63e22f708db3f87bb229c035</t>
+  </si>
+  <si>
+    <t>800</t>
+  </si>
+  <si>
+    <t>4</t>
   </si>
   <si>
     <t>63e22f5e8db3f87bb229bf95</t>
@@ -127,13 +145,10 @@
     <t>60</t>
   </si>
   <si>
-    <t>63e22f708db3f87bb229c035</t>
-  </si>
-  <si>
-    <t>800</t>
-  </si>
-  <si>
-    <t>4</t>
+    <t>63e3b550b7feef2bc93c71a7</t>
+  </si>
+  <si>
+    <t>30</t>
   </si>
   <si>
     <t>63e40de811e4eb3328e954f0</t>
@@ -145,31 +160,46 @@
     <t>8</t>
   </si>
   <si>
+    <t>63e4101e11e4eb3328e95562</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>63e486d511e4eb3328e96458</t>
+  </si>
+  <si>
+    <t>kandarp shah</t>
+  </si>
+  <si>
+    <t>1080</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
     <t>63e4882611e4eb3328e964db</t>
   </si>
   <si>
-    <t>kandarp shah</t>
-  </si>
-  <si>
-    <t>63e486d511e4eb3328e96458</t>
-  </si>
-  <si>
-    <t>1080</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>63e48b7311e4eb3328e965ad</t>
   </si>
   <si>
-    <t>200</t>
+    <t>63e5100c05861c20302bf08d</t>
+  </si>
+  <si>
+    <t>63e4926111e4eb3328e96993</t>
+  </si>
+  <si>
+    <t>63e51b274bde7a495d8ec15e</t>
+  </si>
+  <si>
+    <t>63e551ac4bde7a495d8ec7d5</t>
   </si>
   <si>
     <t>63e552041159a16eb41ee78a</t>
   </si>
   <si>
-    <t>63e551ac4bde7a495d8ec7d5</t>
+    <t>63e53cf2bc76bd300c9dc05c</t>
   </si>
   <si>
     <t>63e55cae4bde7a495d8ec7fe</t>
@@ -181,10 +211,55 @@
     <t>63e55ce34bde7a495d8ec81a</t>
   </si>
   <si>
+    <t>63e55e954bde7a495d8ec865</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>63e5627994c22c3ae2c6225a</t>
+  </si>
+  <si>
+    <t>ONLINE</t>
+  </si>
+  <si>
     <t>63e565164bde7a495d8ee7ea</t>
   </si>
   <si>
     <t>220</t>
+  </si>
+  <si>
+    <t>63e563a315af2b3b20982b1a</t>
+  </si>
+  <si>
+    <t>63e565688dc3223c9284e885</t>
+  </si>
+  <si>
+    <t>63e5d4984bde7a495d8ee8a4</t>
+  </si>
+  <si>
+    <t>Armin</t>
+  </si>
+  <si>
+    <t>261</t>
+  </si>
+  <si>
+    <t>63e61a35a743527e2a29a20d</t>
+  </si>
+  <si>
+    <t>63e6504ca743527e2a29a373</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>63e650aca743527e2a29a3b2</t>
+  </si>
+  <si>
+    <t>63e654a6fbb9f7b872e24a14</t>
+  </si>
+  <si>
+    <t>27</t>
   </si>
 </sst>
 </file>
@@ -230,7 +305,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -281,44 +356,44 @@
         <v>12</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -326,16 +401,16 @@
         <v>19</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -343,67 +418,67 @@
         <v>21</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -411,10 +486,10 @@
         <v>28</v>
       </c>
       <c r="B11" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="0" t="s">
         <v>29</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>30</v>
       </c>
       <c r="D11" s="0" t="s">
         <v>30</v>
@@ -428,16 +503,16 @@
         <v>31</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -445,16 +520,16 @@
         <v>34</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>35</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -462,50 +537,50 @@
         <v>36</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>37</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -513,16 +588,16 @@
         <v>44</v>
       </c>
       <c r="B17" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="0" t="s">
-        <v>32</v>
-      </c>
       <c r="D17" s="0" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -530,7 +605,7 @@
         <v>46</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>47</v>
@@ -539,7 +614,7 @@
         <v>48</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -547,16 +622,16 @@
         <v>49</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>50</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -564,83 +639,355 @@
         <v>51</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="B21" s="0" t="s">
-        <v>23</v>
-      </c>
       <c r="C21" s="0" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D24" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="E24" s="0" t="s">
+      <c r="D37" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E39" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" s="0" t="s">
         <v>9</v>
       </c>
     </row>

--- a/canteen/controllers/thisMonthReport.xlsx
+++ b/canteen/controllers/thisMonthReport.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
   <si>
     <t>Order ID</t>
   </si>
@@ -28,6 +28,21 @@
     <t>Payment Mode</t>
   </si>
   <si>
+    <t>63dfe8107771d34b50ec1f77</t>
+  </si>
+  <si>
+    <t>het</t>
+  </si>
+  <si>
+    <t>360</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>KOT</t>
+  </si>
+  <si>
     <t>63e07eaf09901c4fc0bb277e</t>
   </si>
   <si>
@@ -43,19 +58,16 @@
     <t>CASH</t>
   </si>
   <si>
-    <t>63dfe8107771d34b50ec1f77</t>
-  </si>
-  <si>
-    <t>het</t>
-  </si>
-  <si>
-    <t>360</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>KOT</t>
+    <t>63e07e8109901c4fc0bb2751</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t>63e07f3509901c4fc0bb27fa</t>
+  </si>
+  <si>
+    <t>280</t>
   </si>
   <si>
     <t>63e0b01b09901c4fc0bb2877</t>
@@ -64,18 +76,6 @@
     <t>300</t>
   </si>
   <si>
-    <t>63e07e8109901c4fc0bb2751</t>
-  </si>
-  <si>
-    <t>400</t>
-  </si>
-  <si>
-    <t>63e07f3509901c4fc0bb27fa</t>
-  </si>
-  <si>
-    <t>280</t>
-  </si>
-  <si>
     <t>63e1d5998db3f87bb229b9f2</t>
   </si>
   <si>
@@ -88,37 +88,52 @@
     <t>63e1d7198db3f87bb229bb25</t>
   </si>
   <si>
+    <t>63e1ffe22c5b1158741302ca</t>
+  </si>
+  <si>
+    <t>63e203232c5b115874130468</t>
+  </si>
+  <si>
+    <t>610</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
     <t>63e22be88db3f87bb229bb74</t>
   </si>
   <si>
     <t>230</t>
   </si>
   <si>
-    <t>63e1ffe22c5b1158741302ca</t>
-  </si>
-  <si>
-    <t>63e203232c5b115874130468</t>
-  </si>
-  <si>
-    <t>610</t>
-  </si>
-  <si>
-    <t>6</t>
+    <t>63e22d478db3f87bb229bc52</t>
+  </si>
+  <si>
+    <t>Ayushi</t>
+  </si>
+  <si>
+    <t>10</t>
   </si>
   <si>
     <t>63e22f0f8db3f87bb229bf35</t>
   </si>
   <si>
-    <t>Ayushi</t>
-  </si>
-  <si>
     <t>21</t>
   </si>
   <si>
-    <t>63e22d478db3f87bb229bc52</t>
-  </si>
-  <si>
-    <t>10</t>
+    <t>63e22f5e8db3f87bb229bf95</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>63e22f708db3f87bb229c035</t>
+  </si>
+  <si>
+    <t>800</t>
+  </si>
+  <si>
+    <t>4</t>
   </si>
   <si>
     <t>63e22f938db3f87bb229c08a</t>
@@ -130,21 +145,6 @@
     <t>13</t>
   </si>
   <si>
-    <t>63e22f708db3f87bb229c035</t>
-  </si>
-  <si>
-    <t>800</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>63e22f5e8db3f87bb229bf95</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
     <t>63e3b550b7feef2bc93c71a7</t>
   </si>
   <si>
@@ -166,42 +166,42 @@
     <t>200</t>
   </si>
   <si>
+    <t>63e4882611e4eb3328e964db</t>
+  </si>
+  <si>
+    <t>kandarp shah</t>
+  </si>
+  <si>
     <t>63e486d511e4eb3328e96458</t>
   </si>
   <si>
-    <t>kandarp shah</t>
-  </si>
-  <si>
     <t>1080</t>
   </si>
   <si>
     <t>5</t>
   </si>
   <si>
-    <t>63e4882611e4eb3328e964db</t>
-  </si>
-  <si>
     <t>63e48b7311e4eb3328e965ad</t>
   </si>
   <si>
+    <t>63e4926111e4eb3328e96993</t>
+  </si>
+  <si>
     <t>63e5100c05861c20302bf08d</t>
   </si>
   <si>
-    <t>63e4926111e4eb3328e96993</t>
-  </si>
-  <si>
     <t>63e51b274bde7a495d8ec15e</t>
   </si>
   <si>
+    <t>63e53cf2bc76bd300c9dc05c</t>
+  </si>
+  <si>
     <t>63e551ac4bde7a495d8ec7d5</t>
   </si>
   <si>
     <t>63e552041159a16eb41ee78a</t>
   </si>
   <si>
-    <t>63e53cf2bc76bd300c9dc05c</t>
-  </si>
-  <si>
     <t>63e55cae4bde7a495d8ec7fe</t>
   </si>
   <si>
@@ -223,15 +223,15 @@
     <t>ONLINE</t>
   </si>
   <si>
+    <t>63e563a315af2b3b20982b1a</t>
+  </si>
+  <si>
     <t>63e565164bde7a495d8ee7ea</t>
   </si>
   <si>
     <t>220</t>
   </si>
   <si>
-    <t>63e563a315af2b3b20982b1a</t>
-  </si>
-  <si>
     <t>63e565688dc3223c9284e885</t>
   </si>
   <si>
@@ -247,19 +247,31 @@
     <t>63e61a35a743527e2a29a20d</t>
   </si>
   <si>
+    <t>63e650aca743527e2a29a3b2</t>
+  </si>
+  <si>
     <t>63e6504ca743527e2a29a373</t>
   </si>
   <si>
     <t>140</t>
   </si>
   <si>
-    <t>63e650aca743527e2a29a3b2</t>
-  </si>
-  <si>
     <t>63e654a6fbb9f7b872e24a14</t>
   </si>
   <si>
     <t>27</t>
+  </si>
+  <si>
+    <t>63e6837804b4c646f8cff8ef</t>
+  </si>
+  <si>
+    <t>63e691d11ecee3b620a9c9be</t>
+  </si>
+  <si>
+    <t>3600</t>
+  </si>
+  <si>
+    <t>63e6846155206a37cc50b08b</t>
   </si>
 </sst>
 </file>
@@ -305,7 +317,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -367,16 +379,16 @@
         <v>15</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -384,16 +396,16 @@
         <v>17</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -401,16 +413,16 @@
         <v>19</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -427,7 +439,7 @@
         <v>23</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -438,13 +450,13 @@
         <v>22</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -452,13 +464,13 @@
         <v>25</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E9" s="0" t="s">
         <v>14</v>
@@ -466,33 +478,33 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>12</v>
-      </c>
       <c r="D10" s="0" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E11" s="0" t="s">
         <v>9</v>
@@ -509,10 +521,10 @@
         <v>33</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -526,10 +538,10 @@
         <v>35</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -543,44 +555,44 @@
         <v>37</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>32</v>
       </c>
       <c r="C15" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="0" t="s">
-        <v>41</v>
-      </c>
       <c r="E15" s="0" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="0" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>32</v>
       </c>
       <c r="C16" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="0" t="s">
-        <v>23</v>
-      </c>
       <c r="E16" s="0" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -597,7 +609,7 @@
         <v>23</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -614,7 +626,7 @@
         <v>48</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -631,7 +643,7 @@
         <v>23</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -642,30 +654,30 @@
         <v>52</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="0" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>52</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -682,7 +694,7 @@
         <v>23</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -690,16 +702,16 @@
         <v>57</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -707,16 +719,16 @@
         <v>58</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -727,13 +739,13 @@
         <v>22</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D25" s="0" t="s">
         <v>23</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -750,7 +762,7 @@
         <v>23</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -758,13 +770,13 @@
         <v>61</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E27" s="0" t="s">
         <v>9</v>
@@ -775,13 +787,13 @@
         <v>62</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="E28" s="0" t="s">
         <v>14</v>
@@ -798,10 +810,10 @@
         <v>64</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -812,13 +824,13 @@
         <v>22</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D30" s="0" t="s">
         <v>23</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -832,10 +844,10 @@
         <v>67</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -860,33 +872,33 @@
         <v>70</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="D33" s="0" t="s">
         <v>23</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="B34" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="C34" s="0" t="s">
-        <v>23</v>
-      </c>
       <c r="D34" s="0" t="s">
         <v>23</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>69</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -917,10 +929,10 @@
         <v>76</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -931,13 +943,13 @@
         <v>32</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D37" s="0" t="s">
         <v>23</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -945,33 +957,33 @@
         <v>78</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="D38" s="0" t="s">
         <v>23</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C39" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="B39" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="C39" s="0" t="s">
-        <v>43</v>
-      </c>
       <c r="D39" s="0" t="s">
         <v>23</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -979,15 +991,66 @@
         <v>81</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C40" s="0" t="s">
         <v>82</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E40" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="E41" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="E42" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="E43" s="0" t="s">
         <v>9</v>
       </c>
     </row>

--- a/canteen/controllers/thisMonthReport.xlsx
+++ b/canteen/controllers/thisMonthReport.xlsx
@@ -28,6 +28,21 @@
     <t>Payment Mode</t>
   </si>
   <si>
+    <t>63e07eaf09901c4fc0bb277e</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>420</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>CASH</t>
+  </si>
+  <si>
     <t>63dfe8107771d34b50ec1f77</t>
   </si>
   <si>
@@ -43,21 +58,6 @@
     <t>KOT</t>
   </si>
   <si>
-    <t>63e07eaf09901c4fc0bb277e</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>420</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>CASH</t>
-  </si>
-  <si>
     <t>63e07e8109901c4fc0bb2751</t>
   </si>
   <si>
@@ -115,16 +115,25 @@
     <t>10</t>
   </si>
   <si>
+    <t>63e22f5e8db3f87bb229bf95</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
     <t>63e22f0f8db3f87bb229bf35</t>
   </si>
   <si>
     <t>21</t>
   </si>
   <si>
-    <t>63e22f5e8db3f87bb229bf95</t>
-  </si>
-  <si>
-    <t>60</t>
+    <t>63e22f938db3f87bb229c08a</t>
+  </si>
+  <si>
+    <t>2600</t>
+  </si>
+  <si>
+    <t>13</t>
   </si>
   <si>
     <t>63e22f708db3f87bb229c035</t>
@@ -136,15 +145,6 @@
     <t>4</t>
   </si>
   <si>
-    <t>63e22f938db3f87bb229c08a</t>
-  </si>
-  <si>
-    <t>2600</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
     <t>63e3b550b7feef2bc93c71a7</t>
   </si>
   <si>
@@ -166,33 +166,33 @@
     <t>200</t>
   </si>
   <si>
+    <t>63e486d511e4eb3328e96458</t>
+  </si>
+  <si>
+    <t>kandarp shah</t>
+  </si>
+  <si>
+    <t>1080</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
     <t>63e4882611e4eb3328e964db</t>
   </si>
   <si>
-    <t>kandarp shah</t>
-  </si>
-  <si>
-    <t>63e486d511e4eb3328e96458</t>
-  </si>
-  <si>
-    <t>1080</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>63e48b7311e4eb3328e965ad</t>
   </si>
   <si>
     <t>63e4926111e4eb3328e96993</t>
   </si>
   <si>
+    <t>63e51b274bde7a495d8ec15e</t>
+  </si>
+  <si>
     <t>63e5100c05861c20302bf08d</t>
   </si>
   <si>
-    <t>63e51b274bde7a495d8ec15e</t>
-  </si>
-  <si>
     <t>63e53cf2bc76bd300c9dc05c</t>
   </si>
   <si>
@@ -247,15 +247,15 @@
     <t>63e61a35a743527e2a29a20d</t>
   </si>
   <si>
+    <t>63e6504ca743527e2a29a373</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
     <t>63e650aca743527e2a29a3b2</t>
   </si>
   <si>
-    <t>63e6504ca743527e2a29a373</t>
-  </si>
-  <si>
-    <t>140</t>
-  </si>
-  <si>
     <t>63e654a6fbb9f7b872e24a14</t>
   </si>
   <si>
@@ -265,13 +265,13 @@
     <t>63e6837804b4c646f8cff8ef</t>
   </si>
   <si>
+    <t>63e6846155206a37cc50b08b</t>
+  </si>
+  <si>
+    <t>3600</t>
+  </si>
+  <si>
     <t>63e691d11ecee3b620a9c9be</t>
-  </si>
-  <si>
-    <t>3600</t>
-  </si>
-  <si>
-    <t>63e6846155206a37cc50b08b</t>
   </si>
 </sst>
 </file>
@@ -379,16 +379,16 @@
         <v>15</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -396,16 +396,16 @@
         <v>17</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -413,16 +413,16 @@
         <v>19</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -439,7 +439,7 @@
         <v>23</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -453,10 +453,10 @@
         <v>16</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -464,16 +464,16 @@
         <v>25</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -481,7 +481,7 @@
         <v>26</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>27</v>
@@ -490,7 +490,7 @@
         <v>28</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -507,7 +507,7 @@
         <v>23</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -524,7 +524,7 @@
         <v>33</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -541,7 +541,7 @@
         <v>23</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -558,7 +558,7 @@
         <v>23</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -575,7 +575,7 @@
         <v>40</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -592,7 +592,7 @@
         <v>43</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -609,7 +609,7 @@
         <v>23</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -626,7 +626,7 @@
         <v>48</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -643,7 +643,7 @@
         <v>23</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -654,30 +654,30 @@
         <v>52</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>52</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -694,7 +694,7 @@
         <v>23</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -711,7 +711,7 @@
         <v>23</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -719,16 +719,16 @@
         <v>58</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -736,16 +736,16 @@
         <v>59</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -762,7 +762,7 @@
         <v>23</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -779,7 +779,7 @@
         <v>23</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -787,16 +787,16 @@
         <v>62</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C28" s="0" t="s">
         <v>18</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -810,10 +810,10 @@
         <v>64</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -830,7 +830,7 @@
         <v>23</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -844,10 +844,10 @@
         <v>67</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -898,7 +898,7 @@
         <v>23</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -929,10 +929,10 @@
         <v>76</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -943,13 +943,13 @@
         <v>32</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D37" s="0" t="s">
         <v>23</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -957,33 +957,33 @@
         <v>78</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="D38" s="0" t="s">
         <v>23</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="D39" s="0" t="s">
         <v>23</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -991,16 +991,16 @@
         <v>81</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C40" s="0" t="s">
         <v>82</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1017,7 +1017,7 @@
         <v>45</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1034,7 +1034,7 @@
         <v>45</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1051,7 +1051,7 @@
         <v>45</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/canteen/controllers/thisMonthReport.xlsx
+++ b/canteen/controllers/thisMonthReport.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>Order ID</t>
   </si>
@@ -28,63 +28,63 @@
     <t>Payment Mode</t>
   </si>
   <si>
+    <t>63dfe8107771d34b50ec1f77</t>
+  </si>
+  <si>
+    <t>het</t>
+  </si>
+  <si>
+    <t>360</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>KOT</t>
+  </si>
+  <si>
+    <t>63e07e8109901c4fc0bb2751</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t>CASH</t>
+  </si>
+  <si>
     <t>63e07eaf09901c4fc0bb277e</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>420</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>CASH</t>
-  </si>
-  <si>
-    <t>63dfe8107771d34b50ec1f77</t>
-  </si>
-  <si>
-    <t>het</t>
-  </si>
-  <si>
-    <t>360</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>KOT</t>
-  </si>
-  <si>
-    <t>63e07e8109901c4fc0bb2751</t>
-  </si>
-  <si>
-    <t>400</t>
-  </si>
-  <si>
     <t>63e07f3509901c4fc0bb27fa</t>
   </si>
   <si>
     <t>280</t>
   </si>
   <si>
+    <t>63e1d5998db3f87bb229b9f2</t>
+  </si>
+  <si>
+    <t>Het</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>63e0b01b09901c4fc0bb2877</t>
   </si>
   <si>
     <t>300</t>
   </si>
   <si>
-    <t>63e1d5998db3f87bb229b9f2</t>
-  </si>
-  <si>
-    <t>Het B. Patel</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>63e1d7198db3f87bb229bb25</t>
   </si>
   <si>
@@ -115,16 +115,25 @@
     <t>10</t>
   </si>
   <si>
+    <t>63e22f0f8db3f87bb229bf35</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
     <t>63e22f5e8db3f87bb229bf95</t>
   </si>
   <si>
     <t>60</t>
   </si>
   <si>
-    <t>63e22f0f8db3f87bb229bf35</t>
-  </si>
-  <si>
-    <t>21</t>
+    <t>63e22f708db3f87bb229c035</t>
+  </si>
+  <si>
+    <t>800</t>
+  </si>
+  <si>
+    <t>4</t>
   </si>
   <si>
     <t>63e22f938db3f87bb229c08a</t>
@@ -136,15 +145,6 @@
     <t>13</t>
   </si>
   <si>
-    <t>63e22f708db3f87bb229c035</t>
-  </si>
-  <si>
-    <t>800</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>63e3b550b7feef2bc93c71a7</t>
   </si>
   <si>
@@ -187,12 +187,12 @@
     <t>63e4926111e4eb3328e96993</t>
   </si>
   <si>
+    <t>63e5100c05861c20302bf08d</t>
+  </si>
+  <si>
     <t>63e51b274bde7a495d8ec15e</t>
   </si>
   <si>
-    <t>63e5100c05861c20302bf08d</t>
-  </si>
-  <si>
     <t>63e53cf2bc76bd300c9dc05c</t>
   </si>
   <si>
@@ -211,18 +211,18 @@
     <t>63e55ce34bde7a495d8ec81a</t>
   </si>
   <si>
+    <t>63e5627994c22c3ae2c6225a</t>
+  </si>
+  <si>
+    <t>ONLINE</t>
+  </si>
+  <si>
     <t>63e55e954bde7a495d8ec865</t>
   </si>
   <si>
     <t>120</t>
   </si>
   <si>
-    <t>63e5627994c22c3ae2c6225a</t>
-  </si>
-  <si>
-    <t>ONLINE</t>
-  </si>
-  <si>
     <t>63e563a315af2b3b20982b1a</t>
   </si>
   <si>
@@ -235,6 +235,18 @@
     <t>63e565688dc3223c9284e885</t>
   </si>
   <si>
+    <t>63e5662f53ec5c3ce70088dc</t>
+  </si>
+  <si>
+    <t>63e5678553ec5c3ce70088e4</t>
+  </si>
+  <si>
+    <t>63e5682025f9dc3e222aabd6</t>
+  </si>
+  <si>
+    <t>63e569c08396903e5750ca75</t>
+  </si>
+  <si>
     <t>63e5d4984bde7a495d8ee8a4</t>
   </si>
   <si>
@@ -244,34 +256,91 @@
     <t>261</t>
   </si>
   <si>
+    <t>63e5fb36d782b95952f8ad0f</t>
+  </si>
+  <si>
+    <t>63e5fd08e2b6c3f899a582a4</t>
+  </si>
+  <si>
     <t>63e61a35a743527e2a29a20d</t>
   </si>
   <si>
+    <t>63e6224da743527e2a29a268</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>63e633d3a743527e2a29a326</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
     <t>63e6504ca743527e2a29a373</t>
   </si>
   <si>
-    <t>140</t>
-  </si>
-  <si>
     <t>63e650aca743527e2a29a3b2</t>
   </si>
   <si>
+    <t>63e6530b1838b8067f676ce2</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
     <t>63e654a6fbb9f7b872e24a14</t>
   </si>
   <si>
     <t>27</t>
   </si>
   <si>
-    <t>63e6837804b4c646f8cff8ef</t>
-  </si>
-  <si>
-    <t>63e6846155206a37cc50b08b</t>
-  </si>
-  <si>
-    <t>3600</t>
-  </si>
-  <si>
-    <t>63e691d11ecee3b620a9c9be</t>
+    <t>63e6aaa9e8a68e14cf08c43c</t>
+  </si>
+  <si>
+    <t>63e6ab0ee8a68e14cf08c458</t>
+  </si>
+  <si>
+    <t>63e6ab67e8a68e14cf08c4ad</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>63e6ab2de8a68e14cf08c483</t>
+  </si>
+  <si>
+    <t>63e6aba0e8a68e14cf08c4c3</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>63e6ae35b0dae116a428c0ca</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>63e6ae92b0dae116a428c0f1</t>
+  </si>
+  <si>
+    <t>63e718a095191b4ef17c9843</t>
+  </si>
+  <si>
+    <t>63e71a674c6f9d50858cddd0</t>
+  </si>
+  <si>
+    <t>63e71e583dec9b265ffa80b2</t>
+  </si>
+  <si>
+    <t>63e72354c723902b7ba106e1</t>
+  </si>
+  <si>
+    <t>63e723a34c6f9d50858cdde9</t>
+  </si>
+  <si>
+    <t>63e728608e3d2b52c3e69416</t>
   </si>
 </sst>
 </file>
@@ -317,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E62"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -368,27 +437,27 @@
         <v>12</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>13</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="0" t="s">
+      <c r="D4" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="E4" s="0" t="s">
         <v>13</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -396,16 +465,16 @@
         <v>17</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="0" t="s">
         <v>13</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -413,13 +482,13 @@
         <v>19</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E6" s="0" t="s">
         <v>9</v>
@@ -427,19 +496,19 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>23</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -447,16 +516,16 @@
         <v>24</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -464,16 +533,16 @@
         <v>25</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -481,7 +550,7 @@
         <v>26</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>27</v>
@@ -490,7 +559,7 @@
         <v>28</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -498,16 +567,16 @@
         <v>29</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>30</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -524,7 +593,7 @@
         <v>33</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -538,10 +607,10 @@
         <v>35</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -555,10 +624,10 @@
         <v>37</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -575,7 +644,7 @@
         <v>40</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -592,7 +661,7 @@
         <v>43</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -600,16 +669,16 @@
         <v>44</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>45</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -617,7 +686,7 @@
         <v>46</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>47</v>
@@ -626,7 +695,7 @@
         <v>48</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -634,16 +703,16 @@
         <v>49</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>50</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -660,7 +729,7 @@
         <v>54</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -674,10 +743,10 @@
         <v>30</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -691,10 +760,10 @@
         <v>50</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -702,16 +771,16 @@
         <v>57</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C23" s="0" t="s">
         <v>50</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -719,16 +788,16 @@
         <v>58</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -736,16 +805,16 @@
         <v>59</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -753,16 +822,16 @@
         <v>60</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -770,16 +839,16 @@
         <v>61</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -787,16 +856,16 @@
         <v>62</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C28" s="0" t="s">
         <v>18</v>
       </c>
       <c r="D28" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="0" t="s">
         <v>13</v>
-      </c>
-      <c r="E28" s="0" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -804,16 +873,16 @@
         <v>63</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C29" s="0" t="s">
         <v>64</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -821,16 +890,16 @@
         <v>65</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C30" s="0" t="s">
         <v>30</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -838,16 +907,16 @@
         <v>66</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C31" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" s="0" t="s">
         <v>67</v>
-      </c>
-      <c r="D31" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E31" s="0" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -855,16 +924,16 @@
         <v>68</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>69</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -872,16 +941,16 @@
         <v>70</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -895,10 +964,10 @@
         <v>72</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -906,16 +975,16 @@
         <v>73</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -923,81 +992,81 @@
         <v>74</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="0" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="0" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="0" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="0" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>6</v>
+        <v>79</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E40" s="0" t="s">
         <v>9</v>
@@ -1005,53 +1074,376 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="0" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="0" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>85</v>
+        <v>7</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E43" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E44" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="B43" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="C43" s="0" t="s">
+      <c r="B45" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E45" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C46" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="D43" s="0" t="s">
+      <c r="D46" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E46" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D47" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E47" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="D48" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="D49" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C50" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="E43" s="0" t="s">
-        <v>14</v>
+      <c r="D50" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E50" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="D51" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E51" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="D53" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E53" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="D54" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E54" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="D55" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E55" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="D56" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E56" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D58" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E58" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="D59" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E59" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="D60" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E60" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="C61" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D61" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E61" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C62" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D62" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62" s="0" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/canteen/controllers/thisMonthReport.xlsx
+++ b/canteen/controllers/thisMonthReport.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="165">
   <si>
     <t>Order ID</t>
   </si>
@@ -28,90 +28,84 @@
     <t>Payment Mode</t>
   </si>
   <si>
+    <t>63e1d7198db3f87bb229bb25</t>
+  </si>
+  <si>
+    <t>Het Patel</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>KOT</t>
+  </si>
+  <si>
+    <t>63e1ffe22c5b1158741302ca</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>360</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>CASH</t>
+  </si>
+  <si>
+    <t>63e203232c5b115874130468</t>
+  </si>
+  <si>
+    <t>610</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
     <t>63dfe8107771d34b50ec1f77</t>
   </si>
   <si>
-    <t>het</t>
-  </si>
-  <si>
-    <t>360</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>KOT</t>
+    <t>63e22be88db3f87bb229bb74</t>
+  </si>
+  <si>
+    <t>230</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
   <si>
     <t>63e07e8109901c4fc0bb2751</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>400</t>
-  </si>
-  <si>
-    <t>CASH</t>
-  </si>
-  <si>
     <t>63e07eaf09901c4fc0bb277e</t>
   </si>
   <si>
     <t>420</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>63e07f3509901c4fc0bb27fa</t>
   </si>
   <si>
     <t>280</t>
   </si>
   <si>
+    <t>63e0b01b09901c4fc0bb2877</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
     <t>63e1d5998db3f87bb229b9f2</t>
   </si>
   <si>
-    <t>Het</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>63e0b01b09901c4fc0bb2877</t>
-  </si>
-  <si>
-    <t>300</t>
-  </si>
-  <si>
-    <t>63e1d7198db3f87bb229bb25</t>
-  </si>
-  <si>
-    <t>63e1ffe22c5b1158741302ca</t>
-  </si>
-  <si>
-    <t>63e203232c5b115874130468</t>
-  </si>
-  <si>
-    <t>610</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>63e22be88db3f87bb229bb74</t>
-  </si>
-  <si>
-    <t>230</t>
-  </si>
-  <si>
     <t>63e22d478db3f87bb229bc52</t>
   </si>
   <si>
-    <t>Ayushi</t>
-  </si>
-  <si>
     <t>10</t>
   </si>
   <si>
@@ -169,9 +163,6 @@
     <t>63e486d511e4eb3328e96458</t>
   </si>
   <si>
-    <t>kandarp shah</t>
-  </si>
-  <si>
     <t>1080</t>
   </si>
   <si>
@@ -211,18 +202,18 @@
     <t>63e55ce34bde7a495d8ec81a</t>
   </si>
   <si>
+    <t>63e55e954bde7a495d8ec865</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
     <t>63e5627994c22c3ae2c6225a</t>
   </si>
   <si>
     <t>ONLINE</t>
   </si>
   <si>
-    <t>63e55e954bde7a495d8ec865</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
     <t>63e563a315af2b3b20982b1a</t>
   </si>
   <si>
@@ -250,9 +241,6 @@
     <t>63e5d4984bde7a495d8ee8a4</t>
   </si>
   <si>
-    <t>Armin</t>
-  </si>
-  <si>
     <t>261</t>
   </si>
   <si>
@@ -298,6 +286,9 @@
     <t>63e6aaa9e8a68e14cf08c43c</t>
   </si>
   <si>
+    <t>63e6ab2de8a68e14cf08c483</t>
+  </si>
+  <si>
     <t>63e6ab0ee8a68e14cf08c458</t>
   </si>
   <si>
@@ -307,9 +298,6 @@
     <t>180</t>
   </si>
   <si>
-    <t>63e6ab2de8a68e14cf08c483</t>
-  </si>
-  <si>
     <t>63e6aba0e8a68e14cf08c4c3</t>
   </si>
   <si>
@@ -328,19 +316,196 @@
     <t>63e718a095191b4ef17c9843</t>
   </si>
   <si>
-    <t>63e71a674c6f9d50858cddd0</t>
-  </si>
-  <si>
     <t>63e71e583dec9b265ffa80b2</t>
   </si>
   <si>
+    <t>63e728608e3d2b52c3e69416</t>
+  </si>
+  <si>
     <t>63e72354c723902b7ba106e1</t>
   </si>
   <si>
     <t>63e723a34c6f9d50858cdde9</t>
   </si>
   <si>
-    <t>63e728608e3d2b52c3e69416</t>
+    <t>63e73452686f8a0b203f15ee</t>
+  </si>
+  <si>
+    <t>63e73476b8be1605e0d0dd38</t>
+  </si>
+  <si>
+    <t>63e7347ab8be1605e0d0dd3e</t>
+  </si>
+  <si>
+    <t>63e7347db8be1605e0d0dd44</t>
+  </si>
+  <si>
+    <t>63e747e3c723902b7ba10828</t>
+  </si>
+  <si>
+    <t>63e76fbc9873e54589094c4d</t>
+  </si>
+  <si>
+    <t>240</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>63e9d1d2724a4518a69baf23</t>
+  </si>
+  <si>
+    <t>kirtan</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>63e914387f04c117e005b102</t>
+  </si>
+  <si>
+    <t>63e9d2db724a4518a69baf49</t>
+  </si>
+  <si>
+    <t>63e9d358724a4518a69baf69</t>
+  </si>
+  <si>
+    <t>63e9d3cd724a4518a69baf8c</t>
+  </si>
+  <si>
+    <t>63e9d42c724a4518a69bafb0</t>
+  </si>
+  <si>
+    <t>63e9d4e8724a4518a69bafca</t>
+  </si>
+  <si>
+    <t>63e9db26724a4518a69bb1f3</t>
+  </si>
+  <si>
+    <t>63ea1ba3724a4518a69bb7a0</t>
+  </si>
+  <si>
+    <t>Ishan Bhatt </t>
+  </si>
+  <si>
+    <t>63ea1bd0724a4518a69bb7d0</t>
+  </si>
+  <si>
+    <t>Tanish shah</t>
+  </si>
+  <si>
+    <t>440</t>
+  </si>
+  <si>
+    <t>63ea1d0b724a4518a69bb839</t>
+  </si>
+  <si>
+    <t>Hetvi </t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>63ea1d5a724a4518a69bb86b</t>
+  </si>
+  <si>
+    <t>Rudra Prajapati</t>
+  </si>
+  <si>
+    <t>63ea2602724a4518a69bb96b</t>
+  </si>
+  <si>
+    <t>Shivam </t>
+  </si>
+  <si>
+    <t>63ea2aae724a4518a69bba58</t>
+  </si>
+  <si>
+    <t>Nishit Patel </t>
+  </si>
+  <si>
+    <t>63ea284d724a4518a69bb9ac</t>
+  </si>
+  <si>
+    <t>Siddh Pandya </t>
+  </si>
+  <si>
+    <t>63ea2d76724a4518a69bbaa0</t>
+  </si>
+  <si>
+    <t>Peter parker</t>
+  </si>
+  <si>
+    <t>63ea2f9a724a4518a69bbb02</t>
+  </si>
+  <si>
+    <t>Kushal Shah</t>
+  </si>
+  <si>
+    <t>63ea28a4724a4518a69bb9f0</t>
+  </si>
+  <si>
+    <t>Siddharth </t>
+  </si>
+  <si>
+    <t>63ea33ff724a4518a69bbc73</t>
+  </si>
+  <si>
+    <t>Vrunda Patel</t>
+  </si>
+  <si>
+    <t>63ea3182724a4518a69bbb61</t>
+  </si>
+  <si>
+    <t>63ea325c724a4518a69bbbcd</t>
+  </si>
+  <si>
+    <t>63ea3485724a4518a69bbca1</t>
+  </si>
+  <si>
+    <t>63ea3e63724a4518a69bbcef</t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>63ea6869724a4518a69bbe0d</t>
+  </si>
+  <si>
+    <t>Insiya </t>
+  </si>
+  <si>
+    <t>63ea7a10724a4518a69bbed5</t>
+  </si>
+  <si>
+    <t>Smit </t>
+  </si>
+  <si>
+    <t>63ea7129724a4518a69bbe4d</t>
+  </si>
+  <si>
+    <t>Meet Patel</t>
+  </si>
+  <si>
+    <t>63eba1c9724a4518a69bc05a</t>
+  </si>
+  <si>
+    <t>Pratham shah</t>
+  </si>
+  <si>
+    <t>63fc837413dc6c68227993d5</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>63fc7d6d724a4518a69bc5b6</t>
+  </si>
+  <si>
+    <t>Shah </t>
+  </si>
+  <si>
+    <t>63fc85b6724a4518a69bc6e8</t>
   </si>
 </sst>
 </file>
@@ -386,7 +551,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E62"/>
+  <dimension ref="A1:E97"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -437,44 +602,44 @@
         <v>12</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>14</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -482,10 +647,10 @@
         <v>19</v>
       </c>
       <c r="B6" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="0" t="s">
         <v>20</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>21</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>21</v>
@@ -502,30 +667,30 @@
         <v>11</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>12</v>
-      </c>
       <c r="D8" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -536,30 +701,30 @@
         <v>11</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -567,10 +732,10 @@
         <v>29</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D11" s="0" t="s">
         <v>21</v>
@@ -581,16 +746,16 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>33</v>
-      </c>
       <c r="D12" s="0" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E12" s="0" t="s">
         <v>9</v>
@@ -598,13 +763,13 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="0" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D13" s="0" t="s">
         <v>21</v>
@@ -615,13 +780,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="0" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D14" s="0" t="s">
         <v>21</v>
@@ -632,16 +797,16 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="0" t="s">
         <v>38</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>40</v>
       </c>
       <c r="E15" s="0" t="s">
         <v>9</v>
@@ -649,16 +814,16 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="0" t="s">
         <v>41</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>43</v>
       </c>
       <c r="E16" s="0" t="s">
         <v>9</v>
@@ -666,13 +831,13 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="0" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D17" s="0" t="s">
         <v>21</v>
@@ -683,16 +848,16 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="0" t="s">
         <v>46</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>48</v>
       </c>
       <c r="E18" s="0" t="s">
         <v>9</v>
@@ -700,13 +865,13 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="0" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D19" s="0" t="s">
         <v>21</v>
@@ -717,16 +882,16 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="0" t="s">
         <v>51</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="C20" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="D20" s="0" t="s">
-        <v>54</v>
       </c>
       <c r="E20" s="0" t="s">
         <v>9</v>
@@ -734,13 +899,13 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="0" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D21" s="0" t="s">
         <v>21</v>
@@ -751,13 +916,13 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="0" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D22" s="0" t="s">
         <v>21</v>
@@ -768,13 +933,13 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="0" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D23" s="0" t="s">
         <v>21</v>
@@ -785,13 +950,13 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="0" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D24" s="0" t="s">
         <v>8</v>
@@ -802,13 +967,13 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="0" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D25" s="0" t="s">
         <v>21</v>
@@ -819,10 +984,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="0" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C26" s="0" t="s">
         <v>21</v>
@@ -836,10 +1001,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="0" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C27" s="0" t="s">
         <v>21</v>
@@ -853,33 +1018,33 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="0" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B28" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D28" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="0" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E29" s="0" t="s">
         <v>9</v>
@@ -887,13 +1052,13 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="0" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B30" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="0" t="s">
         <v>20</v>
-      </c>
-      <c r="C30" s="0" t="s">
-        <v>30</v>
       </c>
       <c r="D30" s="0" t="s">
         <v>21</v>
@@ -904,44 +1069,44 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="0" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="0" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="0" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C33" s="0" t="s">
         <v>21</v>
@@ -950,18 +1115,18 @@
         <v>21</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="0" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D34" s="0" t="s">
         <v>21</v>
@@ -972,10 +1137,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="0" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C35" s="0" t="s">
         <v>21</v>
@@ -984,15 +1149,15 @@
         <v>21</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="0" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C36" s="0" t="s">
         <v>21</v>
@@ -1001,15 +1166,15 @@
         <v>21</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="0" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C37" s="0" t="s">
         <v>21</v>
@@ -1018,15 +1183,15 @@
         <v>21</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="0" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C38" s="0" t="s">
         <v>21</v>
@@ -1035,15 +1200,15 @@
         <v>21</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="0" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C39" s="0" t="s">
         <v>21</v>
@@ -1052,21 +1217,21 @@
         <v>21</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="0" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>79</v>
+        <v>11</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E40" s="0" t="s">
         <v>9</v>
@@ -1074,10 +1239,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="0" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C41" s="0" t="s">
         <v>21</v>
@@ -1091,30 +1256,30 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="0" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B42" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="0" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D43" s="0" t="s">
         <v>21</v>
@@ -1125,13 +1290,13 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="0" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D44" s="0" t="s">
         <v>21</v>
@@ -1142,13 +1307,13 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="0" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D45" s="0" t="s">
         <v>21</v>
@@ -1159,13 +1324,13 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="0" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D46" s="0" t="s">
         <v>21</v>
@@ -1176,13 +1341,13 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="0" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>79</v>
+        <v>11</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D47" s="0" t="s">
         <v>21</v>
@@ -1193,13 +1358,13 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="0" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>79</v>
+        <v>11</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D48" s="0" t="s">
         <v>8</v>
@@ -1210,30 +1375,30 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="0" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B49" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D49" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="0" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D50" s="0" t="s">
         <v>21</v>
@@ -1244,16 +1409,16 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="0" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E51" s="0" t="s">
         <v>9</v>
@@ -1261,16 +1426,16 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="0" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="E52" s="0" t="s">
         <v>9</v>
@@ -1278,13 +1443,13 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="0" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D53" s="0" t="s">
         <v>8</v>
@@ -1295,13 +1460,13 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="0" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D54" s="0" t="s">
         <v>21</v>
@@ -1312,13 +1477,13 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="0" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D55" s="0" t="s">
         <v>21</v>
@@ -1329,13 +1494,13 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="0" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D56" s="0" t="s">
         <v>21</v>
@@ -1346,10 +1511,10 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="0" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C57" s="0" t="s">
         <v>8</v>
@@ -1358,52 +1523,52 @@
         <v>8</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="0" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>21</v>
+        <v>83</v>
       </c>
       <c r="D58" s="0" t="s">
         <v>21</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="0" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>87</v>
+        <v>8</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="0" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>79</v>
+        <v>11</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D60" s="0" t="s">
         <v>21</v>
@@ -1414,10 +1579,10 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="0" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>79</v>
+        <v>11</v>
       </c>
       <c r="C61" s="0" t="s">
         <v>21</v>
@@ -1426,24 +1591,619 @@
         <v>21</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="D62" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E62" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="D63" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E63" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="D64" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E64" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="D65" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E65" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="B62" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="C62" s="0" t="s">
+      <c r="B66" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C66" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="D66" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="D62" s="0" t="s">
+      <c r="E66" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C67" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="D67" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="E67" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="C68" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="D68" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E68" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C69" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D69" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E69" s="0" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="C70" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D70" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E70" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="C71" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D71" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E71" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="C72" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D72" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E72" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="B73" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="C73" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D73" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E73" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="C74" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="D74" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E74" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="B75" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C75" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="D75" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E62" s="0" t="s">
-        <v>67</v>
+      <c r="E75" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="C76" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="D76" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E76" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="B77" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="C77" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="D77" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="E77" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="B78" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="C78" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="D78" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E78" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="B79" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="C79" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D79" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E79" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="B80" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="C80" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="D80" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E80" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="B81" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="C81" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="D81" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E81" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="B82" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="C82" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="D82" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E82" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="B83" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="C83" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D83" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E83" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="B84" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="C84" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="D84" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="E84" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="B85" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="C85" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="D85" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E85" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="B86" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="C86" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D86" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E86" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="B87" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="C87" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D87" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E87" s="0" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="B88" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="C88" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="D88" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E88" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="B89" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="C89" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D89" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E89" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="B90" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="C90" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D90" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E90" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="B91" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="C91" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D91" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E91" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="B92" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="C92" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="D92" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E92" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="B93" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="C93" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="D93" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E93" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="B94" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="C94" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="D94" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E94" s="0" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="B95" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C95" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="D95" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="E95" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="B96" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="C96" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D96" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E96" s="0" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="B97" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C97" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D97" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E97" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
